--- a/results/consolidated/400_user_immediate.xlsx
+++ b/results/consolidated/400_user_immediate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1000" windowWidth="30880" windowHeight="19140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1800" yWindow="1000" windowWidth="30880" windowHeight="19140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
     <sheet name="Throughput" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -98,12 +98,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -142,7 +145,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -211,64 +213,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -280,52 +282,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.832</c:v>
+                  <c:v>0.83199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.169</c:v>
+                  <c:v>0.16900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.044</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.052</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.054</c:v>
+                  <c:v>5.3999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.041</c:v>
+                  <c:v>4.1000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.045</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.042</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.042</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.042</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.043</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.058</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.061</c:v>
+                  <c:v>6.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.047</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.04</c:v>
@@ -334,15 +336,20 @@
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.041</c:v>
+                  <c:v>4.1000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.07</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17B2-B148-813F-8DC86AF1664B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -377,64 +384,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,22 +453,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.128</c:v>
+                  <c:v>5.1280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.043</c:v>
+                  <c:v>3.0430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.818</c:v>
+                  <c:v>1.8180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.838</c:v>
+                  <c:v>1.8380000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.555</c:v>
+                  <c:v>1.5549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.319</c:v>
@@ -470,45 +477,50 @@
                   <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.608</c:v>
+                  <c:v>0.60799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.446</c:v>
+                  <c:v>0.44600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.447</c:v>
+                  <c:v>0.44700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.364</c:v>
+                  <c:v>0.36399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.406</c:v>
+                  <c:v>0.40600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.458</c:v>
+                  <c:v>0.45800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.497</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.272</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.219</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.209</c:v>
+                  <c:v>0.20899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.177</c:v>
+                  <c:v>0.17699999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17B2-B148-813F-8DC86AF1664B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -543,64 +555,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,66 +627,71 @@
                   <c:v>1.58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.314</c:v>
+                  <c:v>1.3140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.086</c:v>
+                  <c:v>8.5999999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.067</c:v>
+                  <c:v>6.7000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.069</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.084</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.083</c:v>
+                  <c:v>8.3000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.084</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.075</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.069</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.069</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.088</c:v>
+                  <c:v>8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.071</c:v>
+                  <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.068</c:v>
+                  <c:v>6.8000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.07</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.083</c:v>
+                  <c:v>8.3000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.072</c:v>
+                  <c:v>7.1999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.076</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.071</c:v>
+                  <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-17B2-B148-813F-8DC86AF1664B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -725,64 +742,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -794,69 +811,74 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-17B2-B148-813F-8DC86AF1664B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -964,12 +986,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Average Response Time (ms)</a:t>
+                  <a:t>Average Response Time (seconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -999,6 +1020,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1066,7 +1088,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1096,6 +1117,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1158,7 +1180,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1226,7 +1247,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1265,7 +1286,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1334,64 +1354,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1403,43 +1423,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>461.133</c:v>
+                  <c:v>461.13299999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>698.933</c:v>
+                  <c:v>698.93299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1006.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1079.467</c:v>
+                  <c:v>1079.4670000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1039.533</c:v>
+                  <c:v>1039.5329999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1038.267</c:v>
+                  <c:v>1038.2670000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1076.733</c:v>
+                  <c:v>1076.7329999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1067.933</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1082.333</c:v>
+                  <c:v>1082.3330000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1079.533</c:v>
+                  <c:v>1079.5329999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1068.533</c:v>
+                  <c:v>1068.5329999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1085.267</c:v>
+                  <c:v>1085.2670000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1032.533</c:v>
+                  <c:v>1032.5329999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1018.8</c:v>
@@ -1451,10 +1471,10 @@
                   <c:v>1068.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1084.333</c:v>
+                  <c:v>1084.3330000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1093.533</c:v>
+                  <c:v>1093.5329999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1056.8</c:v>
@@ -1466,6 +1486,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C255-D848-8E56-FE95FADAA517}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1500,64 +1525,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,58 +1597,58 @@
                   <c:v>41.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>157.8</c:v>
+                  <c:v>157.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>184.133</c:v>
+                  <c:v>184.13300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>188.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>179.467</c:v>
+                  <c:v>179.46700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>223.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>278.6</c:v>
+                  <c:v>278.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>405.933</c:v>
+                  <c:v>405.93299999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>499.333</c:v>
+                  <c:v>499.33300000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>431.933</c:v>
+                  <c:v>431.93299999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>546.2</c:v>
+                  <c:v>546.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>535.467</c:v>
+                  <c:v>535.46699999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>630.067</c:v>
+                  <c:v>630.06700000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>546.467</c:v>
+                  <c:v>546.46699999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>455.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>597.867</c:v>
+                  <c:v>597.86699999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>731.7329999999999</c:v>
+                  <c:v>731.73299999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>785.067</c:v>
+                  <c:v>785.06700000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>673.533</c:v>
+                  <c:v>673.53300000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>352.733</c:v>
@@ -1632,6 +1657,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C255-D848-8E56-FE95FADAA517}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1666,64 +1696,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1741,10 +1771,10 @@
                   <c:v>270.733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>599.467</c:v>
+                  <c:v>599.46699999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>684.533</c:v>
+                  <c:v>684.53300000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>706.8</c:v>
@@ -1753,51 +1783,56 @@
                   <c:v>715.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>684.2670000000001</c:v>
+                  <c:v>684.26700000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>689.067</c:v>
+                  <c:v>689.06700000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>675.2670000000001</c:v>
+                  <c:v>675.26700000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>707.067</c:v>
+                  <c:v>707.06700000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>698.467</c:v>
+                  <c:v>698.46699999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>705.933</c:v>
+                  <c:v>705.93299999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>683.133</c:v>
+                  <c:v>683.13300000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>697.867</c:v>
+                  <c:v>697.86699999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>715.7329999999999</c:v>
+                  <c:v>715.73299999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>709.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>681.7329999999999</c:v>
+                  <c:v>681.73299999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>699.333</c:v>
+                  <c:v>699.33299999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>693.467</c:v>
+                  <c:v>693.46699999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>700.933</c:v>
+                  <c:v>700.93299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C255-D848-8E56-FE95FADAA517}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1848,64 +1883,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,69 +1952,74 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C255-D848-8E56-FE95FADAA517}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2097,7 +2137,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2195,7 +2234,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2225,6 +2263,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2287,7 +2326,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3483,7 +3521,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3518,7 +3562,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3803,8 +3853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4210,7 +4260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>

--- a/results/consolidated/400_user_immediate.xlsx
+++ b/results/consolidated/400_user_immediate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrandall/Code/serverlessJsScalingComparison/results/consolidated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\serverlessJsScalingComparison\results\consolidated\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,15 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Time</t>
   </si>
   <si>
     <t>AWS Lambda</t>
-  </si>
-  <si>
-    <t>Azure Functions</t>
   </si>
   <si>
     <t>Google Cloud Functions</t>
@@ -46,6 +43,12 @@
   </si>
   <si>
     <t>Average Response Time</t>
+  </si>
+  <si>
+    <t>Azure Functions (Jan 18)</t>
+  </si>
+  <si>
+    <t>Azure Functions (Mar 18)</t>
   </si>
 </sst>
 </file>
@@ -352,177 +355,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Performance!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Azure Functions</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Performance!$A$3:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1.7361111111111112E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4722222222222224E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2083333333333333E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9444444444444447E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.6805555555555562E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0416666666666667E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2152777777777778E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3888888888888889E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5625000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7361111111111112E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9097222222222224E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0833333333333333E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2569444444444442E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.4305555555555552E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.6041666666666661E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.777777777777777E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.9513888888888879E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.1249999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.2986111111111098E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.4722222222222207E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Performance!$D$3:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>5.1280000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8180000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8380000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5549999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.319</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.60799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.44600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.44700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.36399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.40600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.45800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.497</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.27200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.219</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.20899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.17699999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-17B2-B148-813F-8DC86AF1664B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
@@ -693,6 +525,177 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Mar 18)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Performance!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$F$3:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.5009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3675-41CB-8E24-629F00F89783}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -705,6 +708,201 @@
         <c:smooth val="0"/>
         <c:axId val="1363195440"/>
         <c:axId val="1363197488"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$D$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Azure Functions (Jan 18)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$A$3:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555562E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5625000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.7361111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222224E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444442E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555552E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666661E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.777777777777777E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888879E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999989E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111098E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.4722222222222207E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$D$3:$D$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>5.1280000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.0430000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.994</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.8180000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.8380000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.5549999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.319</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.61</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.60799999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.62</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.44600000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.44700000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.36399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.40600000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.45800000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.497</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.27200000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.219</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.20899999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.17699999999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-17B2-B148-813F-8DC86AF1664B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1281,6 +1479,1373 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Azure Functions - Performance - January</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 18 vs March 18</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Jan 18)</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Performance!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.1280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.497</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.219</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5DC0-4B6C-9F76-59E410E65A25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Mar 18)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Performance!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$F$3:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.5009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5DC0-4B6C-9F76-59E410E65A25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1363195440"/>
+        <c:axId val="1363197488"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>AWS Lambda</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$A$3:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555562E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5625000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.7361111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222224E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444442E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555552E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666661E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.777777777777777E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888879E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999989E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111098E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.4722222222222207E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$C$3:$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>0.83199999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.16900000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.106</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.3999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.1999999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.3999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.1000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4.4999999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4.2000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4.2000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4.2000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>4.2999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>5.8000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>6.0999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4.7E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>4.1000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-5DC0-4B6C-9F76-59E410E65A25}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Google Cloud Functions</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$A$3:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555562E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5625000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.7361111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222224E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444442E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555552E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666661E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.777777777777777E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888879E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999989E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111098E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.4722222222222207E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$E$3:$E$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>1.58</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.3140000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.26</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.5999999999999993E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6.7000000000000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6.9000000000000006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8.4000000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8.3000000000000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.4000000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.4999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6.9000000000000006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>6.9000000000000006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8.7999999999999995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>7.0999999999999994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>6.8000000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>8.3000000000000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>7.1999999999999995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>7.5999999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>7.0999999999999994E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-5DC0-4B6C-9F76-59E410E65A25}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>User Load</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Performance!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5DC0-4B6C-9F76-59E410E65A25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1363204272"/>
+        <c:axId val="1363200880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1363195440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363197488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1363197488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Response Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363195440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1363200880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>User Load</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363204272"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1363204272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1363200880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Throughput</a:t>
             </a:r>
           </a:p>
@@ -1493,177 +3058,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Throughput!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Azure Functions</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Throughput!$A$3:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1.7361111111111112E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4722222222222224E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2083333333333333E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9444444444444447E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.6805555555555562E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0416666666666667E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2152777777777778E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3888888888888889E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5625000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7361111111111112E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9097222222222224E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0833333333333333E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2569444444444442E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.4305555555555552E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.6041666666666661E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.777777777777777E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.9513888888888879E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.1249999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.2986111111111098E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.4722222222222207E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Throughput!$D$3:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>41.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>157.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>184.13300000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>188.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>179.46700000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>223.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>278.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>405.93299999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>499.33300000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>431.93299999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>546.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>535.46699999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>630.06700000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>546.46699999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>455.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>597.86699999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>731.73299999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>785.06700000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>673.53300000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>352.733</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C255-D848-8E56-FE95FADAA517}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
@@ -1834,6 +3228,177 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Mar 18)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Throughput!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$F$3:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>273.06700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>795.33299999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>823.53300000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>813.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>835.93299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>815.53300000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>844.73299999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>836.06700000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>834.66700000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>838.93299999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>852.46699999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>873.33299999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>839.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>852.33299999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>832.26700000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>835.73299999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>833.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B609-4F00-8C0E-140962A4993D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1846,6 +3411,201 @@
         <c:smooth val="0"/>
         <c:axId val="1881817280"/>
         <c:axId val="1881873024"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$D$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Azure Functions (Jan 18)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$A$3:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555562E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5625000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.7361111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222224E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444442E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555552E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666661E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.777777777777777E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888879E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999989E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111098E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.4722222222222207E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$D$3:$D$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>41.2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>157.80000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>184.13300000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>188.6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>179.46700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>223.2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>278.60000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>405.93299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>499.33300000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>431.93299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>546.20000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>535.46699999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>630.06700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>546.46699999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>455.6</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>597.86699999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>731.73299999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>785.06700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>673.53300000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>352.733</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-C255-D848-8E56-FE95FADAA517}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2018,6 +3778,1370 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C255-D848-8E56-FE95FADAA517}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1881879776"/>
+        <c:axId val="1881612640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1881817280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1881873024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1881873024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Requests</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> per Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1881817280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1881612640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>User Load</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1881879776"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1881879776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1881612640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Azure Functions - Throughput - January 18 vs March 18</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Jan 18)</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Throughput!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>157.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184.13300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179.46700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>278.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>405.93299999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>499.33300000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>431.93299999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>546.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>535.46699999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>630.06700000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>546.46699999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>455.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>597.86699999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>731.73299999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>785.06700000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>673.53300000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>352.733</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-244E-4755-876A-51EDEF90847E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Mar 18)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Throughput!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$F$3:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>273.06700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>795.33299999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>823.53300000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>813.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>835.93299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>815.53300000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>844.73299999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>836.06700000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>834.66700000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>838.93299999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>852.46699999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>873.33299999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>839.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>852.33299999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>832.26700000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>835.73299999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>833.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-244E-4755-876A-51EDEF90847E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1881817280"/>
+        <c:axId val="1881873024"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>AWS Lambda</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$A$3:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555562E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5625000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.7361111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222224E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444442E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555552E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666661E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.777777777777777E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888879E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999989E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111098E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.4722222222222207E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$C$3:$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>461.13299999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>698.93299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1006.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1079.4670000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1039.5329999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1038.2670000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1076.7329999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1067.933</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1082.3330000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1079.5329999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1068.5329999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1085.2670000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1032.5329999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1018.8</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1087.8</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1068.2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1084.3330000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1093.5329999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1056.8</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1019.467</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-244E-4755-876A-51EDEF90847E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Google Cloud Functions</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$A$3:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555562E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5625000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.7361111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222224E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444442E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555552E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666661E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.777777777777777E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888879E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999989E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111098E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.4722222222222207E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$E$3:$E$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>119.867</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>270.733</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>599.46699999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>684.53300000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>706.8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>715.8</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>684.26700000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>689.06700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>675.26700000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>707.06700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>698.46699999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>705.93299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>683.13300000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>697.86699999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>715.73299999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>709.2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>681.73299999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>699.33299999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>693.46699999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>700.93299999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-244E-4755-876A-51EDEF90847E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>User Load</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Throughput!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-244E-4755-876A-51EDEF90847E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2472,6 +5596,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2989,6 +6193,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3542,6 +7778,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E5A982-E595-4520-A952-A62937E62A54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3580,6 +7854,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0321C4B8-90A0-4FDA-BF6F-A13ED6991490}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3851,44 +8163,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1.7361111111111112E-4</v>
       </c>
@@ -3904,8 +8220,11 @@
       <c r="E3">
         <v>1.58</v>
       </c>
+      <c r="F3">
+        <v>1.5009999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A9" si="0">TIME(0,0,15)+A3</f>
         <v>3.4722222222222224E-4</v>
@@ -3922,8 +8241,11 @@
       <c r="E4">
         <v>1.3140000000000001</v>
       </c>
+      <c r="F4">
+        <v>0.20399999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>5.2083333333333333E-4</v>
@@ -3940,8 +8262,11 @@
       <c r="E5">
         <v>0.26</v>
       </c>
+      <c r="F5">
+        <v>0.20499999999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
@@ -3958,8 +8283,11 @@
       <c r="E6">
         <v>8.5999999999999993E-2</v>
       </c>
+      <c r="F6">
+        <v>0.185</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>8.6805555555555562E-4</v>
@@ -3976,8 +8304,11 @@
       <c r="E7">
         <v>6.7000000000000004E-2</v>
       </c>
+      <c r="F7">
+        <v>0.187</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1.0416666666666667E-3</v>
@@ -3994,8 +8325,11 @@
       <c r="E8">
         <v>6.9000000000000006E-2</v>
       </c>
+      <c r="F8">
+        <v>0.187</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1.2152777777777778E-3</v>
@@ -4012,8 +8346,11 @@
       <c r="E9">
         <v>8.4000000000000005E-2</v>
       </c>
+      <c r="F9">
+        <v>0.188</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f t="shared" ref="A10:A20" si="1">TIME(0,0,15)+A9</f>
         <v>1.3888888888888889E-3</v>
@@ -4030,8 +8367,11 @@
       <c r="E10">
         <v>8.3000000000000004E-2</v>
       </c>
+      <c r="F10">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>1.5625000000000001E-3</v>
@@ -4048,8 +8388,11 @@
       <c r="E11">
         <v>8.4000000000000005E-2</v>
       </c>
+      <c r="F11">
+        <v>0.184</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>1.7361111111111112E-3</v>
@@ -4066,8 +8409,11 @@
       <c r="E12">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="F12">
+        <v>0.18099999999999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>1.9097222222222224E-3</v>
@@ -4084,8 +8430,11 @@
       <c r="E13">
         <v>6.9000000000000006E-2</v>
       </c>
+      <c r="F13">
+        <v>0.18099999999999999</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>2.0833333333333333E-3</v>
@@ -4102,8 +8451,11 @@
       <c r="E14">
         <v>6.9000000000000006E-2</v>
       </c>
+      <c r="F14">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>2.2569444444444442E-3</v>
@@ -4120,8 +8472,11 @@
       <c r="E15">
         <v>8.7999999999999995E-2</v>
       </c>
+      <c r="F15">
+        <v>0.17699999999999999</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>2.4305555555555552E-3</v>
@@ -4138,8 +8493,11 @@
       <c r="E16">
         <v>7.0999999999999994E-2</v>
       </c>
+      <c r="F16">
+        <v>0.185</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>2.6041666666666661E-3</v>
@@ -4156,8 +8514,11 @@
       <c r="E17">
         <v>6.8000000000000005E-2</v>
       </c>
+      <c r="F17">
+        <v>0.17100000000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>2.777777777777777E-3</v>
@@ -4174,8 +8535,11 @@
       <c r="E18">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="F18">
+        <v>0.182</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>2.9513888888888879E-3</v>
@@ -4192,8 +8556,11 @@
       <c r="E19">
         <v>8.3000000000000004E-2</v>
       </c>
+      <c r="F19">
+        <v>0.17699999999999999</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>3.1249999999999989E-3</v>
@@ -4210,8 +8577,11 @@
       <c r="E20">
         <v>7.1999999999999995E-2</v>
       </c>
+      <c r="F20">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f>TIME(0,0,15)+A20</f>
         <v>3.2986111111111098E-3</v>
@@ -4228,8 +8598,11 @@
       <c r="E21">
         <v>7.5999999999999998E-2</v>
       </c>
+      <c r="F21">
+        <v>0.17899999999999999</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f>TIME(0,0,15)+A21</f>
         <v>3.4722222222222207E-3</v>
@@ -4246,10 +8619,13 @@
       <c r="E22">
         <v>7.0999999999999994E-2</v>
       </c>
+      <c r="F22">
+        <v>0.183</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4258,44 +8634,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1.7361111111111112E-4</v>
       </c>
@@ -4311,8 +8690,11 @@
       <c r="E3">
         <v>119.867</v>
       </c>
+      <c r="F3">
+        <v>273.06700000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A20" si="0">TIME(0,0,15)+A3</f>
         <v>3.4722222222222224E-4</v>
@@ -4329,8 +8711,11 @@
       <c r="E4">
         <v>270.733</v>
       </c>
+      <c r="F4">
+        <v>795.33299999999997</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>5.2083333333333333E-4</v>
@@ -4347,8 +8732,11 @@
       <c r="E5">
         <v>599.46699999999998</v>
       </c>
+      <c r="F5">
+        <v>800.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
@@ -4365,8 +8753,11 @@
       <c r="E6">
         <v>684.53300000000002</v>
       </c>
+      <c r="F6">
+        <v>823.53300000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>8.6805555555555562E-4</v>
@@ -4383,8 +8774,11 @@
       <c r="E7">
         <v>706.8</v>
       </c>
+      <c r="F7">
+        <v>813.2</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1.0416666666666667E-3</v>
@@ -4401,8 +8795,11 @@
       <c r="E8">
         <v>715.8</v>
       </c>
+      <c r="F8">
+        <v>835.93299999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1.2152777777777778E-3</v>
@@ -4419,8 +8816,11 @@
       <c r="E9">
         <v>684.26700000000005</v>
       </c>
+      <c r="F9">
+        <v>815.53300000000002</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>1.3888888888888889E-3</v>
@@ -4437,8 +8837,11 @@
       <c r="E10">
         <v>689.06700000000001</v>
       </c>
+      <c r="F10">
+        <v>844.73299999999995</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>1.5625000000000001E-3</v>
@@ -4455,8 +8858,11 @@
       <c r="E11">
         <v>675.26700000000005</v>
       </c>
+      <c r="F11">
+        <v>836.06700000000001</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>1.7361111111111112E-3</v>
@@ -4473,8 +8879,11 @@
       <c r="E12">
         <v>707.06700000000001</v>
       </c>
+      <c r="F12">
+        <v>835</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>1.9097222222222224E-3</v>
@@ -4491,8 +8900,11 @@
       <c r="E13">
         <v>698.46699999999998</v>
       </c>
+      <c r="F13">
+        <v>834.66700000000003</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>2.0833333333333333E-3</v>
@@ -4509,8 +8921,11 @@
       <c r="E14">
         <v>705.93299999999999</v>
       </c>
+      <c r="F14">
+        <v>838.93299999999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>2.2569444444444442E-3</v>
@@ -4527,8 +8942,11 @@
       <c r="E15">
         <v>683.13300000000004</v>
       </c>
+      <c r="F15">
+        <v>852.46699999999998</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>2.4305555555555552E-3</v>
@@ -4545,8 +8963,11 @@
       <c r="E16">
         <v>697.86699999999996</v>
       </c>
+      <c r="F16">
+        <v>823</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>2.6041666666666661E-3</v>
@@ -4563,8 +8984,11 @@
       <c r="E17">
         <v>715.73299999999995</v>
       </c>
+      <c r="F17">
+        <v>873.33299999999997</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>2.777777777777777E-3</v>
@@ -4581,8 +9005,11 @@
       <c r="E18">
         <v>709.2</v>
       </c>
+      <c r="F18">
+        <v>839.2</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>2.9513888888888879E-3</v>
@@ -4599,8 +9026,11 @@
       <c r="E19">
         <v>681.73299999999995</v>
       </c>
+      <c r="F19">
+        <v>852.33299999999997</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>3.1249999999999989E-3</v>
@@ -4617,8 +9047,11 @@
       <c r="E20">
         <v>699.33299999999997</v>
       </c>
+      <c r="F20">
+        <v>832.26700000000005</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f>TIME(0,0,15)+A20</f>
         <v>3.2986111111111098E-3</v>
@@ -4635,8 +9068,11 @@
       <c r="E21">
         <v>693.46699999999998</v>
       </c>
+      <c r="F21">
+        <v>835.73299999999995</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f>TIME(0,0,15)+A21</f>
         <v>3.4722222222222207E-3</v>
@@ -4652,6 +9088,9 @@
       </c>
       <c r="E22">
         <v>700.93299999999999</v>
+      </c>
+      <c r="F22">
+        <v>833.6</v>
       </c>
     </row>
   </sheetData>

--- a/results/consolidated/400_user_immediate.xlsx
+++ b/results/consolidated/400_user_immediate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\serverlessJsScalingComparison\results\consolidated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrandall/Code/serverlessJsScalingComparison/results/consolidated/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DEFE07-9F6D-004A-B07F-D988CDEA5A08}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1000" windowWidth="30880" windowHeight="19140" tabRatio="500"/>
+    <workbookView xWindow="1800" yWindow="1000" windowWidth="30880" windowHeight="19140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2083,7 +2084,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Performance!$E$2</c15:sqref>
@@ -2112,7 +2113,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Performance!$A$3:$A$22</c15:sqref>
@@ -2187,7 +2188,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Performance!$E$3:$E$22</c15:sqref>
@@ -2261,7 +2262,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-5DC0-4B6C-9F76-59E410E65A25}"/>
                   </c:ext>
@@ -4783,7 +4784,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Throughput!$E$2</c15:sqref>
@@ -4812,7 +4813,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Throughput!$A$3:$A$22</c15:sqref>
@@ -4887,7 +4888,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Throughput!$E$3:$E$22</c15:sqref>
@@ -4961,7 +4962,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-244E-4755-876A-51EDEF90847E}"/>
                   </c:ext>
@@ -8162,21 +8163,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
@@ -8184,7 +8185,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8204,7 +8205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1.7361111111111112E-4</v>
       </c>
@@ -8224,7 +8225,7 @@
         <v>1.5009999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A9" si="0">TIME(0,0,15)+A3</f>
         <v>3.4722222222222224E-4</v>
@@ -8245,7 +8246,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>5.2083333333333333E-4</v>
@@ -8266,7 +8267,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
@@ -8287,7 +8288,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>8.6805555555555562E-4</v>
@@ -8308,7 +8309,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1.0416666666666667E-3</v>
@@ -8329,7 +8330,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1.2152777777777778E-3</v>
@@ -8350,7 +8351,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" ref="A10:A20" si="1">TIME(0,0,15)+A9</f>
         <v>1.3888888888888889E-3</v>
@@ -8371,7 +8372,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>1.5625000000000001E-3</v>
@@ -8392,7 +8393,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>1.7361111111111112E-3</v>
@@ -8413,7 +8414,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>1.9097222222222224E-3</v>
@@ -8434,7 +8435,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>2.0833333333333333E-3</v>
@@ -8455,7 +8456,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>2.2569444444444442E-3</v>
@@ -8476,7 +8477,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>2.4305555555555552E-3</v>
@@ -8497,7 +8498,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>2.6041666666666661E-3</v>
@@ -8518,7 +8519,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>2.777777777777777E-3</v>
@@ -8539,7 +8540,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>2.9513888888888879E-3</v>
@@ -8560,7 +8561,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>3.1249999999999989E-3</v>
@@ -8581,7 +8582,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f>TIME(0,0,15)+A20</f>
         <v>3.2986111111111098E-3</v>
@@ -8602,7 +8603,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f>TIME(0,0,15)+A21</f>
         <v>3.4722222222222207E-3</v>
@@ -8633,28 +8634,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8674,7 +8675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1.7361111111111112E-4</v>
       </c>
@@ -8694,7 +8695,7 @@
         <v>273.06700000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A20" si="0">TIME(0,0,15)+A3</f>
         <v>3.4722222222222224E-4</v>
@@ -8715,7 +8716,7 @@
         <v>795.33299999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>5.2083333333333333E-4</v>
@@ -8736,7 +8737,7 @@
         <v>800.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
@@ -8757,7 +8758,7 @@
         <v>823.53300000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>8.6805555555555562E-4</v>
@@ -8778,7 +8779,7 @@
         <v>813.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1.0416666666666667E-3</v>
@@ -8799,7 +8800,7 @@
         <v>835.93299999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1.2152777777777778E-3</v>
@@ -8820,7 +8821,7 @@
         <v>815.53300000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>1.3888888888888889E-3</v>
@@ -8841,7 +8842,7 @@
         <v>844.73299999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>1.5625000000000001E-3</v>
@@ -8862,7 +8863,7 @@
         <v>836.06700000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>1.7361111111111112E-3</v>
@@ -8883,7 +8884,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>1.9097222222222224E-3</v>
@@ -8904,7 +8905,7 @@
         <v>834.66700000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>2.0833333333333333E-3</v>
@@ -8925,7 +8926,7 @@
         <v>838.93299999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>2.2569444444444442E-3</v>
@@ -8946,7 +8947,7 @@
         <v>852.46699999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>2.4305555555555552E-3</v>
@@ -8967,7 +8968,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>2.6041666666666661E-3</v>
@@ -8988,7 +8989,7 @@
         <v>873.33299999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>2.777777777777777E-3</v>
@@ -9009,7 +9010,7 @@
         <v>839.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>2.9513888888888879E-3</v>
@@ -9030,7 +9031,7 @@
         <v>852.33299999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>3.1249999999999989E-3</v>
@@ -9051,7 +9052,7 @@
         <v>832.26700000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f>TIME(0,0,15)+A20</f>
         <v>3.2986111111111098E-3</v>
@@ -9072,7 +9073,7 @@
         <v>835.73299999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f>TIME(0,0,15)+A21</f>
         <v>3.4722222222222207E-3</v>
